--- a/app/resources/sqldata/recipesTable.xlsx
+++ b/app/resources/sqldata/recipesTable.xlsx
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
